--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/INVENTARIO ALMACEN   MAYO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/INVENTARIO ALMACEN   MAYO   2022.xlsx
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="82">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -451,10 +451,26 @@
     <t>Lo Ingresaron Para Junio</t>
   </si>
   <si>
-    <t>Diferencia dio de baja un TRASPASO CANCELADO   #  0952 z</t>
+    <t>SESOS DE COPA</t>
   </si>
   <si>
-    <t>SESOS DE COPA</t>
+    <r>
+      <t xml:space="preserve">Diferencia con Bety  dio de baja un TRASPASO CANCELADO   #  0952 z   y    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CON EL FISICO    ESTA MAL EN KILOS</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferencia  con el FISICO   ES UNA ENTRADA DEL DIA 28 DE MAYO </t>
   </si>
 </sst>
 </file>
@@ -465,7 +481,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +779,14 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -838,7 +862,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1513,12 +1537,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2288,7 +2321,50 @@
     <xf numFmtId="0" fontId="29" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8661,10 +8737,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="B1:X46"/>
+  <dimension ref="B1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9146,14 +9222,14 @@
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="51">
-        <v>11087.44</v>
+        <v>11089.31</v>
       </c>
       <c r="L13" s="52">
         <v>389</v>
       </c>
       <c r="M13" s="220">
         <f t="shared" si="1"/>
-        <v>-0.10999999999876309</v>
+        <v>1.7600000000002183</v>
       </c>
       <c r="N13" s="192">
         <f t="shared" si="1"/>
@@ -9345,14 +9421,14 @@
       </c>
       <c r="J18" s="241"/>
       <c r="K18" s="51">
-        <v>985.24</v>
+        <v>985.18</v>
       </c>
       <c r="L18" s="52">
         <v>217</v>
       </c>
       <c r="M18" s="220">
         <f t="shared" si="1"/>
-        <v>6.0000000000059117E-2</v>
+        <v>0</v>
       </c>
       <c r="N18" s="270">
         <f t="shared" si="1"/>
@@ -9423,18 +9499,18 @@
       </c>
       <c r="J20" s="31"/>
       <c r="K20" s="51">
-        <v>3517.87</v>
+        <v>2998.77</v>
       </c>
       <c r="L20" s="52">
-        <v>122</v>
-      </c>
-      <c r="M20" s="191">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="192">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="M20" s="321">
+        <f t="shared" si="1"/>
+        <v>-519.09999999999991</v>
+      </c>
+      <c r="N20" s="322">
+        <f t="shared" si="1"/>
+        <v>-21</v>
       </c>
       <c r="O20" s="294"/>
       <c r="P20" s="294"/>
@@ -9711,8 +9787,12 @@
         <v>104</v>
       </c>
       <c r="J28" s="31"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="52"/>
+      <c r="K28" s="83">
+        <v>0</v>
+      </c>
+      <c r="L28" s="52">
+        <v>0</v>
+      </c>
       <c r="M28" s="276">
         <f t="shared" si="2"/>
         <v>-1499.1</v>
@@ -9795,7 +9875,7 @@
         <v>1868.01</v>
       </c>
       <c r="L30" s="52">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M30" s="282">
         <f t="shared" si="2"/>
@@ -9803,7 +9883,7 @@
       </c>
       <c r="N30" s="283">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="284"/>
       <c r="P30" s="285"/>
@@ -9812,7 +9892,7 @@
       </c>
       <c r="R30" s="185"/>
     </row>
-    <row r="31" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="112" t="s">
         <v>70</v>
       </c>
@@ -9868,14 +9948,14 @@
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="83">
-        <v>59.74</v>
+        <v>59.02</v>
       </c>
       <c r="L32" s="52">
         <v>13</v>
       </c>
       <c r="M32" s="191">
         <f t="shared" si="2"/>
-        <v>0.71999999999999886</v>
+        <v>0</v>
       </c>
       <c r="N32" s="192">
         <f t="shared" si="2"/>
@@ -9888,7 +9968,7 @@
     </row>
     <row r="33" spans="2:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
@@ -9955,14 +10035,14 @@
       </c>
       <c r="J34" s="31"/>
       <c r="K34" s="83">
-        <v>321.44</v>
+        <v>321.45</v>
       </c>
       <c r="L34" s="52">
         <v>28</v>
       </c>
       <c r="M34" s="191">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.9999999999909051E-3</v>
       </c>
       <c r="N34" s="192">
         <f t="shared" si="2"/>
@@ -10057,7 +10137,7 @@
       <c r="J37" s="131"/>
       <c r="K37" s="132">
         <f>SUM(K5:K35)</f>
-        <v>42089.570000000007</v>
+        <v>41571.569999999992</v>
       </c>
       <c r="L37" s="133" t="s">
         <v>63</v>
@@ -10090,84 +10170,88 @@
       <c r="C40" s="254" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="253" t="s">
+      <c r="D40" s="328" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="214"/>
-      <c r="F40" s="214"/>
-      <c r="G40" s="215"/>
-      <c r="H40" s="215"/>
-      <c r="I40" s="215"/>
-      <c r="J40" s="215"/>
-      <c r="K40" s="215"/>
-      <c r="L40" s="216"/>
+      <c r="E40" s="329"/>
+      <c r="F40" s="329"/>
+      <c r="G40" s="330"/>
+      <c r="H40" s="330"/>
+      <c r="I40" s="330"/>
+      <c r="J40" s="330"/>
+      <c r="K40" s="330"/>
+      <c r="L40" s="331"/>
       <c r="M40" s="211"/>
       <c r="N40" s="212"/>
     </row>
-    <row r="41" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="320"/>
-      <c r="C41" s="281" t="s">
+      <c r="C41" s="323" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="321" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="250"/>
-      <c r="F41" s="250"/>
-      <c r="G41" s="251"/>
-      <c r="H41" s="251"/>
-      <c r="I41" s="251"/>
-      <c r="J41" s="251"/>
-      <c r="K41" s="251"/>
-      <c r="L41" s="252"/>
+      <c r="D41" s="324" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="325"/>
+      <c r="F41" s="325"/>
+      <c r="G41" s="326"/>
+      <c r="H41" s="326"/>
+      <c r="I41" s="326"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="326"/>
+      <c r="L41" s="327"/>
       <c r="M41" s="211"/>
       <c r="N41" s="212"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="244"/>
-      <c r="C42" s="287" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="205" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="185"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="185"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="185"/>
-      <c r="K42" s="185"/>
-      <c r="L42" s="206"/>
+      <c r="B42" s="320"/>
+      <c r="C42" s="281" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="332" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="333"/>
+      <c r="F42" s="333"/>
+      <c r="G42" s="334"/>
+      <c r="H42" s="334"/>
+      <c r="I42" s="334"/>
+      <c r="J42" s="251"/>
+      <c r="K42" s="251"/>
+      <c r="L42" s="252"/>
       <c r="M42" s="211"/>
       <c r="N42" s="212"/>
     </row>
     <row r="43" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="244"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="205"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="185"/>
-      <c r="I43" s="185"/>
-      <c r="J43" s="185"/>
-      <c r="K43" s="185"/>
+      <c r="C43" s="287" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="335" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="336"/>
+      <c r="F43" s="336"/>
+      <c r="G43" s="336"/>
+      <c r="H43" s="336"/>
+      <c r="I43" s="336"/>
+      <c r="J43" s="336"/>
+      <c r="K43" s="337"/>
       <c r="L43" s="206"/>
-      <c r="M43" s="207"/>
-      <c r="N43" s="208"/>
+      <c r="M43" s="211"/>
+      <c r="N43" s="212"/>
     </row>
     <row r="44" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="244"/>
       <c r="C44" s="204"/>
-      <c r="D44" s="209"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="185"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="185"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="185"/>
-      <c r="K44" s="185"/>
+      <c r="D44" s="338"/>
+      <c r="E44" s="339"/>
+      <c r="F44" s="339"/>
+      <c r="G44" s="339"/>
+      <c r="H44" s="339"/>
+      <c r="I44" s="339"/>
+      <c r="J44" s="339"/>
+      <c r="K44" s="340"/>
       <c r="L44" s="206"/>
       <c r="M44" s="207"/>
       <c r="N44" s="208"/>
@@ -10175,7 +10259,7 @@
     <row r="45" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="244"/>
       <c r="C45" s="204"/>
-      <c r="D45" s="210"/>
+      <c r="D45" s="209"/>
       <c r="E45" s="185"/>
       <c r="F45" s="185"/>
       <c r="G45" s="185"/>
@@ -10187,12 +10271,28 @@
       <c r="M45" s="207"/>
       <c r="N45" s="208"/>
     </row>
-    <row r="46" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C46" s="149"/>
+    <row r="46" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="244"/>
+      <c r="C46" s="204"/>
+      <c r="D46" s="210"/>
+      <c r="E46" s="185"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="185"/>
+      <c r="H46" s="185"/>
+      <c r="I46" s="185"/>
+      <c r="J46" s="185"/>
+      <c r="K46" s="185"/>
+      <c r="L46" s="206"/>
+      <c r="M46" s="207"/>
+      <c r="N46" s="208"/>
+    </row>
+    <row r="47" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="149"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B40:B41"/>
+  <mergeCells count="21">
+    <mergeCell ref="D43:K44"/>
+    <mergeCell ref="B40:B42"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O20:P20"/>
